--- a/ipa_2/myUtils/models.xlsx
+++ b/ipa_2/myUtils/models.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_1_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{790E1B96-11D3-4DDD-A596-7E9C8D93BF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB714F1-FEA6-44E0-91CC-D236A2C69DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -139,6 +139,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -168,9 +171,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,22 +458,22 @@
   <dimension ref="A1:AB6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +559,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -659,7 +663,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -691,7 +695,7 @@
         <v>7.6164651789715501E-2</v>
       </c>
       <c r="K3" s="1">
-        <f t="shared" ref="K3:K6" si="1">1/9</f>
+        <f t="shared" ref="K3:S6" si="1">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="L3" s="1">
@@ -763,7 +767,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -867,7 +871,7 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -971,108 +975,99 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:28" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>4.8911334279475797E-2</v>
-      </c>
-      <c r="C6">
-        <v>0.116507072739287</v>
-      </c>
-      <c r="D6">
-        <v>0.15560747566824601</v>
-      </c>
-      <c r="E6">
-        <v>9.5867024592105304E-2</v>
-      </c>
-      <c r="F6">
-        <v>9.1431360569712905E-2</v>
-      </c>
-      <c r="G6">
-        <v>6.9186475296906302E-2</v>
-      </c>
-      <c r="H6">
-        <v>8.3965797643721099E-2</v>
-      </c>
-      <c r="I6">
-        <v>0.24883032840612301</v>
-      </c>
-      <c r="J6">
-        <v>8.9693130804419804E-2</v>
-      </c>
-      <c r="K6" s="1">
+      <c r="B6" s="2">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.161</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.153</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.107</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="J6" s="2">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="K6" s="2">
         <f t="shared" si="1"/>
         <v>0.1111111111111111</v>
       </c>
-      <c r="L6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="M6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="N6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="O6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="P6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="Q6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="R6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="S6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="T6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="U6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="V6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="W6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="X6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="Y6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="Z6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AA6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
-      </c>
-      <c r="AB6" s="1">
-        <f t="shared" si="0"/>
-        <v>0.1111111111111111</v>
+      <c r="L6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="N6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="O6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="1"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="T6" s="2">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="X6" s="2">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0.114</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0.16400000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/ipa_2/myUtils/models.xlsx
+++ b/ipa_2/myUtils/models.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomer\Documents\GitHub\WebExperiment\ipa_2\myUtils\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Ilan Lab Drive\Tomer\Doctorate\Doctorate Management\Study 2 - Profiles and Games\Data Analysis IPA 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB714F1-FEA6-44E0-91CC-D236A2C69DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F23C920E-DD6E-4AB5-9DD1-8DB65B6C902E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-21720" yWindow="1725" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -478,31 +478,31 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>7</v>
       </c>
       <c r="K1" t="s">
         <v>15</v>
@@ -564,38 +564,38 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>0.153503587410487</v>
+      </c>
+      <c r="C2">
+        <v>6.5942468705538201E-2</v>
+      </c>
+      <c r="D2">
+        <v>6.0864429650064403E-2</v>
+      </c>
+      <c r="E2">
+        <v>0.37123311941125098</v>
+      </c>
+      <c r="F2">
+        <v>0.114690402043858</v>
+      </c>
+      <c r="G2">
         <v>2.4649639917621199E-2</v>
       </c>
-      <c r="C2">
+      <c r="H2">
         <v>2.4635456592512501E-2</v>
       </c>
-      <c r="D2">
+      <c r="I2">
         <v>6.3961646142211503E-2</v>
       </c>
-      <c r="E2">
+      <c r="J2">
         <v>0.120519250126453</v>
-      </c>
-      <c r="F2">
-        <v>0.153503587410487</v>
-      </c>
-      <c r="G2">
-        <v>6.5942468705538201E-2</v>
-      </c>
-      <c r="H2">
-        <v>6.0864429650064403E-2</v>
-      </c>
-      <c r="I2">
-        <v>0.37123311941125098</v>
-      </c>
-      <c r="J2">
-        <v>0.114690402043858</v>
       </c>
       <c r="K2" s="1">
         <f>1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="L2" s="1">
-        <f t="shared" ref="L2:AB6" si="0">1/9</f>
+        <f t="shared" ref="L2:AB5" si="0">1/9</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="M2" s="1">
@@ -668,31 +668,31 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.9367251588039E-2</v>
+      </c>
+      <c r="C3">
+        <v>7.8180772553524902E-2</v>
+      </c>
+      <c r="D3">
+        <v>8.0352783685589999E-2</v>
+      </c>
+      <c r="E3">
+        <v>0.26496633838091399</v>
+      </c>
+      <c r="F3">
+        <v>7.6164651789715501E-2</v>
+      </c>
+      <c r="G3">
         <v>5.0048262863488603E-2</v>
       </c>
-      <c r="C3">
+      <c r="H3">
         <v>0.124465299991199</v>
       </c>
-      <c r="D3">
+      <c r="I3">
         <v>0.14189064619369399</v>
       </c>
-      <c r="E3">
+      <c r="J3">
         <v>0.13456399295383401</v>
-      </c>
-      <c r="F3">
-        <v>4.9367251588039E-2</v>
-      </c>
-      <c r="G3">
-        <v>7.8180772553524902E-2</v>
-      </c>
-      <c r="H3">
-        <v>8.0352783685589999E-2</v>
-      </c>
-      <c r="I3">
-        <v>0.26496633838091399</v>
-      </c>
-      <c r="J3">
-        <v>7.6164651789715501E-2</v>
       </c>
       <c r="K3" s="1">
         <f t="shared" ref="K3:S6" si="1">1/9</f>
@@ -772,31 +772,31 @@
         <v>3</v>
       </c>
       <c r="B4">
+        <v>6.1222599284850202E-2</v>
+      </c>
+      <c r="C4">
+        <v>9.59631394816918E-2</v>
+      </c>
+      <c r="D4">
+        <v>8.16216309435467E-2</v>
+      </c>
+      <c r="E4">
+        <v>0.21704071752642101</v>
+      </c>
+      <c r="F4">
+        <v>5.5746416527572E-2</v>
+      </c>
+      <c r="G4">
         <v>7.8281215349951805E-2</v>
       </c>
-      <c r="C4">
+      <c r="H4">
         <v>0.24596421347366301</v>
       </c>
-      <c r="D4">
+      <c r="I4">
         <v>6.6657274530676894E-2</v>
       </c>
-      <c r="E4">
+      <c r="J4">
         <v>9.7502792881625402E-2</v>
-      </c>
-      <c r="F4">
-        <v>6.1222599284850202E-2</v>
-      </c>
-      <c r="G4">
-        <v>9.59631394816918E-2</v>
-      </c>
-      <c r="H4">
-        <v>8.16216309435467E-2</v>
-      </c>
-      <c r="I4">
-        <v>0.21704071752642101</v>
-      </c>
-      <c r="J4">
-        <v>5.5746416527572E-2</v>
       </c>
       <c r="K4" s="1">
         <f t="shared" si="1"/>
@@ -876,31 +876,31 @@
         <v>4</v>
       </c>
       <c r="B5">
+        <v>0.11034193087724301</v>
+      </c>
+      <c r="C5">
+        <v>3.4432415266837699E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.11173760988235</v>
+      </c>
+      <c r="E5">
+        <v>0.15143670008993701</v>
+      </c>
+      <c r="F5">
+        <v>0.116615554321736</v>
+      </c>
+      <c r="G5">
         <v>3.9310470125831103E-2</v>
       </c>
-      <c r="C5">
+      <c r="H5">
         <v>5.7054478286120203E-2</v>
       </c>
-      <c r="D5">
+      <c r="I5">
         <v>0.34900131321167499</v>
       </c>
-      <c r="E5">
+      <c r="J5">
         <v>3.0069527938267299E-2</v>
-      </c>
-      <c r="F5">
-        <v>0.11034193087724301</v>
-      </c>
-      <c r="G5">
-        <v>3.4432415266837699E-2</v>
-      </c>
-      <c r="H5">
-        <v>0.11173760988235</v>
-      </c>
-      <c r="I5">
-        <v>0.15143670008993701</v>
-      </c>
-      <c r="J5">
-        <v>0.116615554321736</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" si="1"/>
@@ -980,31 +980,31 @@
         <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>0.32600000000000001</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.128</v>
+        <v>0.11899999999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.14499999999999999</v>
+        <v>8.8999999999999996E-2</v>
       </c>
       <c r="E6" s="2">
-        <v>0.161</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>1E-3</v>
+        <v>7.2999999999999995E-2</v>
       </c>
       <c r="G6" s="2">
-        <v>0.153</v>
+        <v>0.254</v>
       </c>
       <c r="H6" s="2">
-        <v>0.107</v>
+        <v>0.115</v>
       </c>
       <c r="I6" s="2">
-        <v>0.18</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J6" s="2">
-        <v>9.6000000000000002E-2</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="K6" s="2">
         <f t="shared" si="1"/>
@@ -1043,31 +1043,31 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="T6" s="2">
-        <v>7.2999999999999995E-2</v>
+        <v>8.5999999999999993E-2</v>
       </c>
       <c r="U6" s="2">
-        <v>0.10100000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="V6" s="2">
-        <v>0.17599999999999999</v>
+        <v>0.19500000000000001</v>
       </c>
       <c r="W6" s="2">
-        <v>0.11700000000000001</v>
+        <v>0.124</v>
       </c>
       <c r="X6" s="2">
-        <v>4.2999999999999997E-2</v>
+        <v>5.5E-2</v>
       </c>
       <c r="Y6" s="2">
-        <v>0.11799999999999999</v>
+        <v>0.13900000000000001</v>
       </c>
       <c r="Z6" s="2">
-        <v>5.8000000000000003E-2</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="AA6" s="2">
-        <v>0.114</v>
+        <v>0.128</v>
       </c>
       <c r="AB6" s="2">
-        <v>0.16400000000000001</v>
+        <v>0.17799999999999999</v>
       </c>
     </row>
   </sheetData>
